--- a/data.xlsx
+++ b/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,28 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Registered</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Not In-Progress</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,43 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Not Registered</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>In-progress</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Not Completed</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,43 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Not Registered</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>In-progress</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
